--- a/results/real_data_guru_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_04/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_04/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.1_opt_constrained\k=0.1\ROI_greedy\dataset_04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92108B57-1533-41F4-B90F-6D9B9B3E732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_04_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +692,7 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.9055915721231766</v>
+        <v>0.90559157212317665</v>
       </c>
       <c r="O2">
         <v>2718</v>
@@ -612,10 +701,10 @@
         <v>250</v>
       </c>
       <c r="Q2">
-        <v>2.386190676848843</v>
+        <v>2.3861906768488428</v>
       </c>
       <c r="R2">
-        <v>1871.452330787789</v>
+        <v>1871.4523307877889</v>
       </c>
       <c r="S2">
         <v>10.872</v>
@@ -624,10 +713,10 @@
         <v>13.41666666666667</v>
       </c>
       <c r="U2">
-        <v>2.596497715196463</v>
+        <v>2.5964977151964632</v>
       </c>
       <c r="V2">
-        <v>1767.630411264637</v>
+        <v>1767.6304112646369</v>
       </c>
       <c r="W2">
         <v>19408</v>
@@ -642,7 +731,7 @@
         <v>1.012151238591916</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +772,7 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.7695054945054945</v>
+        <v>0.76950549450549455</v>
       </c>
       <c r="O3">
         <v>4115</v>
@@ -695,19 +784,19 @@
         <v>2.159079309076529</v>
       </c>
       <c r="R3">
-        <v>2614.437328188649</v>
+        <v>2614.4373281886492</v>
       </c>
       <c r="S3">
-        <v>8.663157894736843</v>
+        <v>8.6631578947368428</v>
       </c>
       <c r="T3">
         <v>12.91914893617021</v>
       </c>
       <c r="U3">
-        <v>2.558710624371362</v>
+        <v>2.5587106243713622</v>
       </c>
       <c r="V3">
-        <v>2199.70300327273</v>
+        <v>2199.7030032727298</v>
       </c>
       <c r="W3">
         <v>21128</v>
@@ -719,10 +808,10 @@
         <v>20289</v>
       </c>
       <c r="Z3">
-        <v>1.041352456996402</v>
+        <v>1.0413524569964021</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -763,7 +852,7 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.9398418700584393</v>
+        <v>0.93984187005843933</v>
       </c>
       <c r="O4">
         <v>3234</v>
@@ -772,19 +861,19 @@
         <v>325</v>
       </c>
       <c r="Q4">
-        <v>2.297649857807315</v>
+        <v>2.2976498578073148</v>
       </c>
       <c r="R4">
-        <v>2162.263796212623</v>
+        <v>2162.2637962126232</v>
       </c>
       <c r="S4">
-        <v>9.950769230769231</v>
+        <v>9.9507692307692306</v>
       </c>
       <c r="T4">
         <v>19.22666666666667</v>
       </c>
       <c r="U4">
-        <v>2.956298204308584</v>
+        <v>2.9562982043085841</v>
       </c>
       <c r="V4">
         <v>2290.555269353712</v>
@@ -802,7 +891,7 @@
         <v>1.007710609799084</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -852,22 +941,22 @@
         <v>290</v>
       </c>
       <c r="Q5">
-        <v>2.165698323689445</v>
+        <v>2.1656983236894449</v>
       </c>
       <c r="R5">
         <v>1610.947486130061</v>
       </c>
       <c r="S5">
-        <v>8.720689655172414</v>
+        <v>8.7206896551724142</v>
       </c>
       <c r="T5">
-        <v>13.25294117647059</v>
+        <v>13.252941176470589</v>
       </c>
       <c r="U5">
-        <v>2.584219503381983</v>
+        <v>2.5842195033819828</v>
       </c>
       <c r="V5">
-        <v>1643.682684425063</v>
+        <v>1643.6826844250629</v>
       </c>
       <c r="W5">
         <v>11526</v>
@@ -879,10 +968,10 @@
         <v>11370</v>
       </c>
       <c r="Z5">
-        <v>1.013720316622691</v>
+        <v>1.0137203166226909</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -923,7 +1012,7 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.8048878205128205</v>
+        <v>0.80488782051282048</v>
       </c>
       <c r="O6">
         <v>3296</v>
@@ -932,16 +1021,16 @@
         <v>800</v>
       </c>
       <c r="Q6">
-        <v>1.415853163361435</v>
+        <v>1.4158531633614351</v>
       </c>
       <c r="R6">
-        <v>1363.317469310852</v>
+        <v>1363.3174693108519</v>
       </c>
       <c r="S6">
         <v>4.12</v>
       </c>
       <c r="T6">
-        <v>14.39333333333333</v>
+        <v>14.393333333333331</v>
       </c>
       <c r="U6">
         <v>2.666765136418551</v>
@@ -959,10 +1048,10 @@
         <v>25440</v>
       </c>
       <c r="Z6">
-        <v>1.019143081761006</v>
+        <v>1.0191430817610061</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1092,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.963332004782782</v>
+        <v>0.96333200478278203</v>
       </c>
       <c r="O7">
         <v>2832</v>
@@ -1018,7 +1107,7 @@
         <v>1807.739179496122</v>
       </c>
       <c r="S7">
-        <v>8.767801857585139</v>
+        <v>8.7678018575851393</v>
       </c>
       <c r="T7">
         <v>11.83856502242153</v>
@@ -1039,10 +1128,10 @@
         <v>12314</v>
       </c>
       <c r="Z7">
-        <v>1.00747117102485</v>
+        <v>1.0074711710248501</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1172,7 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.8592523364485981</v>
+        <v>0.85925233644859811</v>
       </c>
       <c r="O8">
         <v>6425</v>
@@ -1095,19 +1184,19 @@
         <v>1.787875969201657</v>
       </c>
       <c r="R8">
-        <v>3428.033333108218</v>
+        <v>3428.0333331082179</v>
       </c>
       <c r="S8">
-        <v>5.976744186046512</v>
+        <v>5.9767441860465116</v>
       </c>
       <c r="T8">
-        <v>37.776</v>
+        <v>37.776000000000003</v>
       </c>
       <c r="U8">
         <v>3.631673980343157</v>
       </c>
       <c r="V8">
-        <v>4143.040752457106</v>
+        <v>4143.0407524571056</v>
       </c>
       <c r="W8">
         <v>38792</v>
@@ -1122,7 +1211,7 @@
         <v>1.019795473067115</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1252,7 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.8524714828897338</v>
+        <v>0.85247148288973384</v>
       </c>
       <c r="O9">
         <v>2875</v>
@@ -1172,7 +1261,7 @@
         <v>245</v>
       </c>
       <c r="Q9">
-        <v>2.462549742686724</v>
+        <v>2.4625497426867242</v>
       </c>
       <c r="R9">
         <v>2026.675313041753</v>
@@ -1184,10 +1273,10 @@
         <v>15.46451612903226</v>
       </c>
       <c r="U9">
-        <v>2.738548117515138</v>
+        <v>2.7385481175151378</v>
       </c>
       <c r="V9">
-        <v>1817.525041785154</v>
+        <v>1817.5250417851539</v>
       </c>
       <c r="W9">
         <v>16978</v>
@@ -1202,7 +1291,7 @@
         <v>1.023387582881254</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1332,7 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.8406805877803558</v>
+        <v>0.84068058778035581</v>
       </c>
       <c r="O10">
         <v>1558</v>
@@ -1252,22 +1341,22 @@
         <v>265</v>
       </c>
       <c r="Q10">
-        <v>1.771428400444471</v>
+        <v>1.7714284004444709</v>
       </c>
       <c r="R10">
-        <v>823.5714738822151</v>
+        <v>823.57147388221506</v>
       </c>
       <c r="S10">
         <v>5.879245283018868</v>
       </c>
       <c r="T10">
-        <v>7.587878787878788</v>
+        <v>7.5878787878787879</v>
       </c>
       <c r="U10">
         <v>2.026552077759463</v>
       </c>
       <c r="V10">
-        <v>752.6189071696886</v>
+        <v>752.61890716968855</v>
       </c>
       <c r="W10">
         <v>12078</v>
@@ -1279,10 +1368,10 @@
         <v>11872</v>
       </c>
       <c r="Z10">
-        <v>1.017351752021563</v>
+        <v>1.0173517520215629</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.9293044469783353</v>
+        <v>0.92930444697833525</v>
       </c>
       <c r="O11">
         <v>1909</v>
@@ -1332,22 +1421,22 @@
         <v>155</v>
       </c>
       <c r="Q11">
-        <v>2.510909706806501</v>
+        <v>2.5109097068065012</v>
       </c>
       <c r="R11">
         <v>1364.808995444992</v>
       </c>
       <c r="S11">
-        <v>12.31612903225806</v>
+        <v>12.316129032258059</v>
       </c>
       <c r="T11">
         <v>13.53846153846154</v>
       </c>
       <c r="U11">
-        <v>2.605534637576615</v>
+        <v>2.6055346375766151</v>
       </c>
       <c r="V11">
-        <v>1291.28049711504</v>
+        <v>1291.2804971150399</v>
       </c>
       <c r="W11">
         <v>14902</v>
@@ -1360,9 +1449,52 @@
       </c>
       <c r="Z11">
         <v>1.008390851265395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.87951936544897413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0170474534031275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.76950549450549455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.0413524569964021</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>